--- a/BikeSpeed.xlsx
+++ b/BikeSpeed.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\GitHub\capitalbikeshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D2610A-F31F-4C46-8478-E81F18BC04DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61141C3B-4693-4249-810A-B09F9D373D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{6AB65454-7591-4999-A217-06625771D979}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedal" sheetId="1" r:id="rId1"/>
-    <sheet name="EBike" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="EBike" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="EBikeSpeed">EBike!$C$28</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>startnode</t>
   </si>
@@ -216,13 +217,19 @@
   </si>
   <si>
     <t>Average =</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +248,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,17 +291,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +364,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F66417F6-6F8B-4DE0-9FF4-03B8C66F7579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1920240" y="2011680"/>
+          <a:ext cx="5764530" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,20 +729,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F0C389C-7B9B-456F-94E2-7E85DED4B308}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H7"/>
+      <selection activeCell="A10" sqref="A10:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="10" width="8.83984375" style="2"/>
-    <col min="11" max="11" width="8.83984375" style="4"/>
-    <col min="12" max="16384" width="8.83984375" style="2"/>
+    <col min="12" max="12" width="8.83984375" style="4"/>
+    <col min="13" max="16384" width="8.83984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,11 +767,11 @@
       <c r="H1" s="5">
         <v>10000</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>31104</v>
       </c>
@@ -660,11 +794,11 @@
         <f>B8</f>
         <v>312.29708704414986</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>31110</v>
       </c>
@@ -687,11 +821,11 @@
         <f>C8</f>
         <v>211.84765347541338</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>31113</v>
       </c>
@@ -714,11 +848,11 @@
         <f>D8</f>
         <v>211.55800811722617</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>31114</v>
       </c>
@@ -741,11 +875,11 @@
         <f>E8</f>
         <v>263.70049710179109</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>31116</v>
       </c>
@@ -768,11 +902,11 @@
         <f>F8</f>
         <v>301.66967176707374</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>31296</v>
       </c>
@@ -795,49 +929,49 @@
         <f>G8</f>
         <v>401.08940418764985</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>10000</v>
       </c>
       <c r="B8" s="5">
-        <f>(B17/PedalSpeed)*360</f>
+        <f t="shared" ref="B8:G8" si="0">(B17/PedalSpeed)*360</f>
         <v>312.29708704414986</v>
       </c>
       <c r="C8" s="5">
-        <f>(C17/PedalSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>211.84765347541338</v>
       </c>
       <c r="D8" s="5">
-        <f>(D17/PedalSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>211.55800811722617</v>
       </c>
       <c r="E8" s="5">
-        <f>(E17/PedalSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>263.70049710179109</v>
       </c>
       <c r="F8" s="5">
-        <f>(F17/PedalSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>301.66967176707374</v>
       </c>
       <c r="G8" s="5">
-        <f>(G17/PedalSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>401.08940418764985</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K9" s="3" t="s">
+    <row r="9" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="L9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -862,17 +996,20 @@
       <c r="H10" s="2">
         <v>10000</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="I10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>31104</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
       <c r="C11" s="2">
         <v>0.53076511578782204</v>
       </c>
@@ -885,34 +1022,36 @@
       <c r="F11" s="2">
         <v>0.37178561068473498</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="11">
         <v>0.12543759736837601</v>
       </c>
       <c r="H11" s="2">
         <f>B17</f>
         <v>0.44027902055047202</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="I11" s="6">
+        <f>MIN(B11:H11)</f>
+        <v>0.12543759736837601</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="L11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>31110</v>
       </c>
       <c r="B12" s="2">
         <v>0.53076511578782204</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
       <c r="D12" s="2">
         <v>0.367141018703317</v>
       </c>
       <c r="E12" s="2">
         <v>0.28608931346299299</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>0.26886688484209698</v>
       </c>
       <c r="G12" s="2">
@@ -922,22 +1061,24 @@
         <f>C17</f>
         <v>0.298664576928586</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="I12" s="6">
+        <f t="shared" ref="I12:I17" si="1">MIN(B12:H12)</f>
+        <v>0.26886688484209698</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="L12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>31113</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="11">
         <v>0.16657804882138999</v>
       </c>
       <c r="C13" s="2">
         <v>0.367141018703317</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
       </c>
       <c r="E13" s="2">
         <v>0.17130644208118201</v>
@@ -952,11 +1093,16 @@
         <f>D17</f>
         <v>0.29825623250303701</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.16657804882138999</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="L13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>31114</v>
       </c>
@@ -969,10 +1115,7 @@
       <c r="D14" s="2">
         <v>0.17130644208118201</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
+      <c r="F14" s="11">
         <v>8.8520410011264899E-2</v>
       </c>
       <c r="G14" s="2">
@@ -982,11 +1125,16 @@
         <f>E17</f>
         <v>0.37176714544966499</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>8.8520410011264899E-2</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>31116</v>
       </c>
@@ -999,11 +1147,8 @@
       <c r="D15" s="2">
         <v>0.25949042868218603</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="11">
         <v>8.8520410011264899E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0.43694124157452402</v>
@@ -1012,15 +1157,20 @@
         <f>F17</f>
         <v>0.42529640244967398</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>8.8520410011264899E-2</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="L15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>31296</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
         <v>0.12543759736837601</v>
       </c>
       <c r="C16" s="2">
@@ -1034,19 +1184,21 @@
       </c>
       <c r="F16" s="2">
         <v>0.43694124157452402</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
       </c>
       <c r="H16" s="2">
         <f>G17</f>
         <v>0.56545916486228998</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.12543759736837601</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="L16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="2">
         <v>10000</v>
       </c>
@@ -1056,7 +1208,7 @@
       <c r="C17" s="2">
         <v>0.298664576928586</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="11">
         <v>0.29825623250303701</v>
       </c>
       <c r="E17" s="2">
@@ -1068,27 +1220,29 @@
       <c r="G17" s="2">
         <v>0.56545916486228998</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.29825623250303701</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="L17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K18" s="3" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -1113,187 +1267,187 @@
       <c r="H20" s="2">
         <v>10000</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>31104</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:G21" si="0">C11/(C2/360)</f>
+        <f t="shared" ref="C21:G21" si="2">C11/(C2/360)</f>
         <v>0.6942752583260503</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.3424574100135177</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57518633101574945</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.72057417328588125</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.46359446631962536</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>31110</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:G22" si="1">B12/(B3/360)</f>
+        <f t="shared" ref="B22:G22" si="3">B12/(B3/360)</f>
         <v>0.50962218809189586</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4370887013039686</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42827250251701388</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45998794409103244</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52453974766369038</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>31113</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:G23" si="2">B13/(B4/360)</f>
+        <f t="shared" ref="B23:G23" si="4">B13/(B4/360)</f>
         <v>0.30178050541330287</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.65707808645277277</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.49086361117328808</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58507236529595419</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58635080498316916</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>31114</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ref="B24:G24" si="3">B14/(B5/360)</f>
+        <f t="shared" ref="B24:G24" si="5">B14/(B5/360)</f>
         <v>0.50949486640872599</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72093658831982477</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25589344045321794</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.13168325456221225</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.51855061008020875</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>31116</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" ref="B25:G25" si="4">B15/(B6/360)</f>
+        <f t="shared" ref="B25:G25" si="6">B15/(B6/360)</f>
         <v>0.51502768579703539</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68470280641460235</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36758874996951896</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24286492458180592</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.54653236731145682</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>31296</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" ref="B26:G26" si="5">B16/(B7/360)</f>
+        <f t="shared" ref="B26:F26" si="7">B16/(B7/360)</f>
         <v>0.27910667445137521</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.74859196459132871</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.52711904414729072</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.57127691553786919</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.82981548438668662</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>10000</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
@@ -1301,147 +1455,147 @@
         <f>AVERAGE(B21:G26)</f>
         <v>0.50753098243200234</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K29" s="3" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K30" s="3" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K31" s="3" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K32" s="3" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K33" s="3" t="s">
+    <row r="33" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K34" s="3" t="s">
+    <row r="34" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K35" s="3" t="s">
+    <row r="35" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K36" s="3" t="s">
+    <row r="36" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K37" s="3" t="s">
+    <row r="37" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K38" s="3" t="s">
+    <row r="38" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K39" s="3" t="s">
+    <row r="39" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K40" s="3" t="s">
+    <row r="40" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K41" s="3" t="s">
+    <row r="41" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K42" s="3" t="s">
+    <row r="42" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K43" s="4" t="s">
+    <row r="43" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L43" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K44" s="4" t="s">
+    <row r="44" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K45" s="4" t="s">
+    <row r="45" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L45" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K46" s="4" t="s">
+    <row r="46" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L46" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K47" s="4" t="s">
+    <row r="47" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L47" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K48" s="4" t="s">
+    <row r="48" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L48" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K49" s="4" t="s">
+    <row r="49" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L49" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K50" s="4" t="s">
+    <row r="50" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L50" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K51" s="4" t="s">
+    <row r="51" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K52" s="4" t="s">
+    <row r="52" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L52" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K53" s="4" t="s">
+    <row r="53" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L53" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K54" s="4" t="s">
+    <row r="54" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L54" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K55" s="4" t="s">
+    <row r="55" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L55" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="11:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="K56" s="4" t="s">
+    <row r="56" spans="12:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="L56" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1452,16 +1606,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F1302-790F-43E9-ADA5-8FA8B7195BCB}">
-  <dimension ref="A1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7A2850-D402-4BCB-9B28-88A606954016}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H7"/>
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658F1302-790F-43E9-ADA5-8FA8B7195BCB}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1487,7 +1656,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>31104</v>
       </c>
@@ -1514,7 +1683,7 @@
         <v>473.52237224840206</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>31110</v>
       </c>
@@ -1541,7 +1710,7 @@
         <v>321.21530296167504</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>31113</v>
       </c>
@@ -1568,7 +1737,7 @@
         <v>320.77612641213466</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>31114</v>
       </c>
@@ -1595,7 +1764,7 @@
         <v>399.83749490775818</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>31116</v>
       </c>
@@ -1622,7 +1791,7 @@
         <v>457.40848870084739</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>31296</v>
       </c>
@@ -1649,39 +1818,39 @@
         <v>608.15426731080663</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>10000</v>
       </c>
       <c r="B8">
-        <f>(B17/EBikeSpeed)*360</f>
+        <f t="shared" ref="B8:G8" si="0">(B17/EBikeSpeed)*360</f>
         <v>473.52237224840206</v>
       </c>
       <c r="C8">
-        <f>(C17/EBikeSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>321.21530296167504</v>
       </c>
       <c r="D8">
-        <f>(D17/EBikeSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>320.77612641213466</v>
       </c>
       <c r="E8">
-        <f>(E17/EBikeSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>399.83749490775818</v>
       </c>
       <c r="F8">
-        <f>(F17/EBikeSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>457.40848870084739</v>
       </c>
       <c r="G8">
-        <f>(G17/EBikeSpeed)*360</f>
+        <f t="shared" si="0"/>
         <v>608.15426731080663</v>
       </c>
       <c r="H8">
         <v>917</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1707,13 +1876,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>31104</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="2">
         <v>0.53076511578782204</v>
       </c>
@@ -1733,17 +1900,19 @@
         <f>B17</f>
         <v>0.44027902055047202</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11">
+        <f>MIN(B11:H11)</f>
+        <v>0.12543759736837601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>31110</v>
       </c>
       <c r="B12" s="2">
         <v>0.53076511578782204</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2">
         <v>0.367141018703317</v>
       </c>
@@ -1761,7 +1930,7 @@
         <v>0.298664576928586</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>31113</v>
       </c>
@@ -1771,9 +1940,7 @@
       <c r="C13" s="2">
         <v>0.367141018703317</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2">
         <v>0.17130644208118201</v>
       </c>
@@ -1788,7 +1955,7 @@
         <v>0.29825623250303701</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>31114</v>
       </c>
@@ -1815,7 +1982,7 @@
         <v>0.37176714544966499</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>31116</v>
       </c>
@@ -1842,7 +2009,7 @@
         <v>0.42529640244967398</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>31296</v>
       </c>
@@ -1931,23 +2098,23 @@
         <v>31104</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:H21" si="0">C11/(C2/360)</f>
+        <f t="shared" ref="C21:G21" si="1">C11/(C2/360)</f>
         <v>0.79614767368173311</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7593728234682851E-2</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39018960376489747</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50128396946256404</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5844749141268547E-2</v>
       </c>
     </row>
@@ -1956,23 +2123,23 @@
         <v>31110</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:G22" si="1">B12/(B3/360)</f>
+        <f t="shared" ref="B22:G22" si="2">B12/(B3/360)</f>
         <v>0.70768682105042935</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49502159825166336</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.38573840017482197</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36251714810170377</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.60051016949038771</v>
       </c>
     </row>
@@ -1981,23 +2148,23 @@
         <v>31113</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:G23" si="2">B13/(B4/360)</f>
+        <f t="shared" ref="B23:G23" si="3">B13/(B4/360)</f>
         <v>1.7534531454883158E-2</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4724850469996241E-2</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23097497808698697</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.77847128604655813</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.33915063606412799</v>
       </c>
     </row>
@@ -2006,23 +2173,23 @@
         <v>31114</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:G24" si="3">B14/(B5/360)</f>
+        <f t="shared" ref="B24:G24" si="4">B14/(B5/360)</f>
         <v>5.9873921957027378E-2</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.57217862692598598</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0138470853028881E-2</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.7953813687767864E-2</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.7944735197290639E-2</v>
       </c>
     </row>
@@ -2031,23 +2198,23 @@
         <v>31116</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:G25" si="4">B15/(B6/360)</f>
+        <f t="shared" ref="B25:G25" si="5">B15/(B6/360)</f>
         <v>0.44614273282168193</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7614332466163633E-2</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77847128604655813</v>
       </c>
       <c r="E25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6629135177075133E-2</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.58913425830272903</v>
       </c>
     </row>
@@ -2056,23 +2223,23 @@
         <v>31296</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:G26" si="5">B16/(B7/360)</f>
+        <f t="shared" ref="B26:F26" si="6">B16/(B7/360)</f>
         <v>2.0341232005682594E-2</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.71310582626983543</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38106813040913257</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38857057720536076</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.109235310393631</v>
       </c>
     </row>

--- a/BikeSpeed.xlsx
+++ b/BikeSpeed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Documents\GitHub\capitalbikeshare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61141C3B-4693-4249-810A-B09F9D373D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36663348-6782-4A6A-860A-2D7E945F38E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{6AB65454-7591-4999-A217-06625771D979}"/>
   </bookViews>
@@ -257,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -349,6 +355,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,6 +417,67 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1920240" y="2011680"/>
+          <a:ext cx="5764530" cy="1470660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5E3C00-ADD9-430F-AE66-F5928887B456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1920240" y="4023360"/>
           <a:ext cx="5764530" cy="1470660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1051,13 +1119,13 @@
       <c r="E12" s="2">
         <v>0.28608931346299299</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="12">
         <v>0.26886688484209698</v>
       </c>
       <c r="G12" s="2">
         <v>0.63387184557318699</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="11">
         <f>C17</f>
         <v>0.298664576928586</v>
       </c>
@@ -1170,13 +1238,13 @@
       <c r="A16" s="2">
         <v>31296</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>0.12543759736837601</v>
       </c>
       <c r="C16" s="2">
         <v>0.63387184557318699</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="11">
         <v>0.28262553005343999</v>
       </c>
       <c r="E16" s="2">
@@ -1205,10 +1273,10 @@
       <c r="B17" s="2">
         <v>0.44027902055047202</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="11">
         <v>0.298664576928586</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="12">
         <v>0.29825623250303701</v>
       </c>
       <c r="E17" s="2">
@@ -1610,7 +1678,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
